--- a/tmp/作業時間.xlsx
+++ b/tmp/作業時間.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="B2:Q52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -576,62 +576,74 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="3">
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3">
-        <v>0.91666666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="4">
         <f t="shared" ref="N5:N51" si="0">IF(AND(F5&lt;&gt;"",J5&lt;&gt;""),J5-F5,"")</f>
-        <v>4.166666666666663E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>42628</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3">
+        <v>0.875</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="N6" s="4">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>42629</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3">
+        <v>0.875</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="N7" s="4">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -1564,7 +1576,7 @@
     <row r="52" spans="2:17" x14ac:dyDescent="0.15">
       <c r="N52" s="8">
         <f>SUM(N3:Q51)</f>
-        <v>0.49999999999999994</v>
+        <v>0.625</v>
       </c>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>

--- a/tmp/作業時間.xlsx
+++ b/tmp/作業時間.xlsx
@@ -485,7 +485,7 @@
   <dimension ref="B2:Q52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E8"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -650,21 +650,27 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>42633</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="N8" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -1576,7 +1582,7 @@
     <row r="52" spans="2:17" x14ac:dyDescent="0.15">
       <c r="N52" s="8">
         <f>SUM(N3:Q51)</f>
-        <v>0.625</v>
+        <v>0.70833333333333326</v>
       </c>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
